--- a/src/test/java/utility/TestData.xlsx
+++ b/src/test/java/utility/TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="51">
   <si>
     <t>TestCaseID</t>
   </si>

--- a/src/test/java/utility/TestData.xlsx
+++ b/src/test/java/utility/TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="51">
   <si>
     <t>TestCaseID</t>
   </si>

--- a/src/test/java/utility/TestData.xlsx
+++ b/src/test/java/utility/TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="51">
   <si>
     <t>TestCaseID</t>
   </si>

--- a/src/test/java/utility/TestData.xlsx
+++ b/src/test/java/utility/TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="51">
   <si>
     <t>TestCaseID</t>
   </si>

--- a/src/test/java/utility/TestData.xlsx
+++ b/src/test/java/utility/TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="51">
   <si>
     <t>TestCaseID</t>
   </si>

--- a/src/test/java/utility/TestData.xlsx
+++ b/src/test/java/utility/TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="51">
   <si>
     <t>TestCaseID</t>
   </si>

--- a/src/test/java/utility/TestData.xlsx
+++ b/src/test/java/utility/TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="51">
   <si>
     <t>TestCaseID</t>
   </si>

--- a/src/test/java/utility/TestData.xlsx
+++ b/src/test/java/utility/TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="51">
   <si>
     <t>TestCaseID</t>
   </si>

--- a/src/test/java/utility/TestData.xlsx
+++ b/src/test/java/utility/TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="51">
   <si>
     <t>TestCaseID</t>
   </si>

--- a/src/test/java/utility/TestData.xlsx
+++ b/src/test/java/utility/TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="51">
   <si>
     <t>TestCaseID</t>
   </si>

--- a/src/test/java/utility/TestData.xlsx
+++ b/src/test/java/utility/TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="51">
   <si>
     <t>TestCaseID</t>
   </si>

--- a/src/test/java/utility/TestData.xlsx
+++ b/src/test/java/utility/TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="51">
   <si>
     <t>TestCaseID</t>
   </si>

--- a/src/test/java/utility/TestData.xlsx
+++ b/src/test/java/utility/TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="51">
   <si>
     <t>TestCaseID</t>
   </si>

--- a/src/test/java/utility/TestData.xlsx
+++ b/src/test/java/utility/TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="51">
   <si>
     <t>TestCaseID</t>
   </si>
